--- a/output/Media_analise/media/Compositions/@saidaouter_biolog.xlsx
+++ b/output/Media_analise/media/Compositions/@saidaouter_biolog.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\Media_analise\media\Compositions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb5363e8f87d921c/Área de Trabalho/faculdade/@Lab/Bisch/V.cholerae1/V. cholerae metabolism/output/Media_analise/media/Compositions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FAF868-1061-41EC-815A-BA0E35EDF7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{15FAF868-1061-41EC-815A-BA0E35EDF7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A7F8C3-E0D1-488D-81DF-C44D7A5DA2FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Inner" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId3"/>
+    <sheet name="Outer" sheetId="2" r:id="rId3"/>
     <sheet name="Inner Union" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Inner!$A$1:$GO$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha1!$A$1:$GO$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outer!$A$1:$GO$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -776,9 +776,9 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -968,7 +968,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -2776,13 +2776,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDAB2A3-3AC6-4C28-AA42-58B975BD520D}">
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -4453,13 +4453,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA15D5A6-49B3-4500-81F0-9054602E996A}">
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="16" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4587,7 +4594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4649,7 +4656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4711,7 +4718,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4773,7 +4780,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4835,7 +4842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4897,7 +4904,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4959,7 +4966,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5021,7 +5028,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5083,7 +5090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -5142,7 +5149,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5204,7 +5211,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5263,7 +5270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -5325,7 +5332,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -5387,7 +5394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -5449,7 +5456,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5511,7 +5518,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -5573,7 +5580,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -5635,7 +5642,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -5697,7 +5704,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -5759,7 +5766,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -5821,7 +5828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -5883,7 +5890,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -5942,7 +5949,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -6001,7 +6008,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -6060,7 +6067,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -6119,7 +6126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -6181,7 +6188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -6243,7 +6250,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -6302,7 +6309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6364,7 +6371,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -6427,7 +6434,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:GO1" xr:uid="{FA15D5A6-49B3-4500-81F0-9054602E996A}"/>
+  <autoFilter ref="A1:GO1" xr:uid="{FA15D5A6-49B3-4500-81F0-9054602E996A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP31">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -6440,9 +6451,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6479,7 +6490,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6487,7 +6498,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6495,7 +6506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -6503,7 +6514,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6511,7 +6522,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -6519,7 +6530,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -6527,7 +6538,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -6535,7 +6546,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -6543,7 +6554,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -6551,7 +6562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -6559,7 +6570,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -6567,7 +6578,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -6575,7 +6586,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -6583,7 +6594,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -6591,7 +6602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -6599,7 +6610,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
